--- a/api_test.xlsx
+++ b/api_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\1 sale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8587D5FF-856C-4332-86FC-1E2E6627EC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF581E7-3134-47D6-B52D-893BB1E5C07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{FA55DDED-2185-459F-A742-72C8196F855C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA55DDED-2185-459F-A742-72C8196F855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>https://www.amazon.com/SweetLeaf-Liquid-Stevia-Sweetener-Vanilla/dp/B082YTDW84?pd_rd_w=Q0jaO&amp;content-id=amzn1.sym.0c00971a-971c-4dda-a54c-e65f98cf0e25&amp;pf_rd_p=0c00971a-971c-4dda-a54c-e65f98cf0e25&amp;pf_rd_r=39PRVPQETJW7V4RK0W49&amp;pd_rd_wg=4t4NN&amp;pd_rd_r=eb7d4ba4-dbc1-4a6e-92a9-86d4b0df78a5&amp;ref_=pd_bap_d_csi_vtp_0_t&amp;th=1"</t>
   </si>
@@ -54,6 +54,51 @@
   </si>
   <si>
     <t>API_URL</t>
+  </si>
+  <si>
+    <t>https://browze.com/products/2-piece-queen-satin-pillowcase-set</t>
+  </si>
+  <si>
+    <t>https://www.gearbest.ma/product/leadjoy-vx2-aimbox-keyboard-mouse-controller-adapter-converter-for-xbox-series-x-xbox-series-s-playstation-4-nintendo-switch-2/</t>
+  </si>
+  <si>
+    <t>https://www.joesnewbalanceoutlet.com/pd/q-speed-jacquard-short-sleeve/MT23281.html?dwvar_MT23281_style=MT23281LAY</t>
+  </si>
+  <si>
+    <t>https://www.buydig.com/shop/product/NKD780K24120/Nikon-D780-FX-Format-Digital-SLR-Camera-Body-with-AF-S-NIKKOR-24-120mm-f4G-ED-Lens</t>
+  </si>
+  <si>
+    <t>https://www.itechdeals.com/collections/homepage-promos-2/products/apple-airpods-1st-generation-with-charging-case</t>
+  </si>
+  <si>
+    <t>https://dailysale.com/products/samsung-galaxy-tab-a-wifi-7-8gb-tablet-sm-t280-black?_pos=2&amp;_fid=7a8cf965d&amp;_ss=c</t>
+  </si>
+  <si>
+    <t>https://dailysteals.com/products/apple-watch-series-9-41mm-mrhy3lw-a-gps-lte.html</t>
+  </si>
+  <si>
+    <t>https://www.wayfair.com/home/pdp/joss-main-piedmont-1-light-9-flush-mount-w004211581.html?piid=594550493</t>
+  </si>
+  <si>
+    <t>https://home.woot.com/offers/new-hunter-true-hepa-digital-air-purifier-3?ref=w_gw_dd_1</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/RYOBI-ONE-18V-Cordless-High-Pressure-Inflator-Tool-Only-PCL001B/327406129?MERCH=REC-_-personalizedDeals-_-n/a-_-2-_-n/a-_-n/a-_-n/a-_-n/a-_-n/a</t>
+  </si>
+  <si>
+    <t>https://vminnovations.com/collections/sporting-goods/products/balancefrom-fitness-gogym-2-inch-thick-tri-fold-folding-gymnastics-mat-pink</t>
+  </si>
+  <si>
+    <t>https://www.newegg.com/p/N82E16883360568?Item=N82E16883360568</t>
+  </si>
+  <si>
+    <t>https://itparts.com/products/deskonizer-wooden-docking-station-charging-station-for-bedside-table-a-nightstand-organizer</t>
+  </si>
+  <si>
+    <t>https://untilgone.com/products/portable-countertop-self-cleaning-ice-maker.html</t>
+  </si>
+  <si>
+    <t>https://www.groupon.com/deals/ga-bk-great-wolf-lodge-chicago-gurnee-15</t>
   </si>
 </sst>
 </file>
@@ -436,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0EF682-18D0-4BCC-A1AA-B0D8943782D3}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,11 +519,95 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{78D313A4-4C1B-4402-98E5-C0D16AD0EF5E}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{C6A7A65C-C5D4-4D9E-9152-65138508524B}"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://www.amazon.com/SweetLeaf-Liquid-Stevia-Sweetener-Vanilla/dp/B082YTDW84?pd_rd_w=Q0jaO&amp;content-id=amzn1.sym.0c00971a-971c-4dda-a54c-e65f98cf0e25&amp;pf_rd_p=0c00971a-971c-4dda-a54c-e65f98cf0e25&amp;pf_rd_r=39PRVPQETJW7V4RK0W49&amp;pd_rd_wg=4t4NN&amp;pd_rd_r=eb7d4ba4-dbc1-4a6e-92a9-86d4b0df78a5&amp;ref_=pd_bap_d_csi_vtp_0_t&amp;th=1&quot;" xr:uid="{35C75361-27AB-4C77-9F32-652DC1CC0BF9}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{91245BC6-A97B-4E95-9294-6330CA981244}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{4E83E96D-382F-460B-A516-A7ECB6BD3B2A}"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://www.amazon.com/SweetLeaf-Liquid-Stevia-Sweetener-Vanilla/dp/B082YTDW84?pd_rd_w=Q0jaO&amp;content-id=amzn1.sym.0c00971a-971c-4dda-a54c-e65f98cf0e25&amp;pf_rd_p=0c00971a-971c-4dda-a54c-e65f98cf0e25&amp;pf_rd_r=39PRVPQETJW7V4RK0W49&amp;pd_rd_wg=4t4NN&amp;pd_rd_r=eb7d4ba4-dbc1-4a6e-92a9-86d4b0df78a5&amp;ref_=pd_bap_d_csi_vtp_0_t&amp;th=1&quot;" xr:uid="{5A664206-FFC9-4DE9-A5F3-896BB529A125}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{FAAF96AF-465B-42DA-8346-C9B0F3BF31AD}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{4D8E0EA3-039C-432E-AC43-23A53D16A43E}"/>
+    <hyperlink ref="A15" r:id="rId6" xr:uid="{A87315E8-4FDF-4766-807F-18607E63F18C}"/>
+    <hyperlink ref="A16" r:id="rId7" xr:uid="{9C0A53B4-BE80-4EA4-A295-9CFF13351A19}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{BCDEACC9-FEE1-4CB5-8084-FC904508C5CB}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{5E95AA1A-9915-49AE-9297-20EA109ABBF1}"/>
+    <hyperlink ref="A19" r:id="rId10" xr:uid="{4C2A28C6-5D64-4936-94CB-D6410CC21970}"/>
+    <hyperlink ref="A20" r:id="rId11" xr:uid="{680A4A7B-31B7-4B8F-931C-ACEFEE4CF721}"/>
+    <hyperlink ref="A21" r:id="rId12" xr:uid="{2290E72E-EA3F-4C31-8A82-29B1E867FEB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
